--- a/Karate_final.xlsx
+++ b/Karate_final.xlsx
@@ -382,12 +382,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>club-sports</t>
+          <t>sports_club_coed</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Karate-Coed</t>
+          <t>Karate</t>
         </is>
       </c>
     </row>
@@ -399,12 +399,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>club-sports</t>
+          <t>sports_club_coed</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Karate-Coed</t>
+          <t>Karate</t>
         </is>
       </c>
     </row>
@@ -416,12 +416,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>club-sports</t>
+          <t>sports_club_coed</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Karate-Coed</t>
+          <t>Karate</t>
         </is>
       </c>
     </row>
@@ -433,12 +433,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>club-sports</t>
+          <t>sports_club_coed</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Karate-Coed</t>
+          <t>Karate</t>
         </is>
       </c>
     </row>
@@ -450,12 +450,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>club-sports</t>
+          <t>sports_club_boys</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Karate-Boys</t>
+          <t>Karate</t>
         </is>
       </c>
     </row>
@@ -467,12 +467,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>club-sports</t>
+          <t>sports_club_girls</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Karate-Girls</t>
+          <t>Karate</t>
         </is>
       </c>
     </row>
@@ -484,12 +484,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>club-sports</t>
+          <t>sports_club_coed</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Karate-Coed</t>
+          <t>Karate</t>
         </is>
       </c>
     </row>
@@ -501,12 +501,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>club-sports</t>
+          <t>sports_club_coed</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Karate-Coed</t>
+          <t>Karate</t>
         </is>
       </c>
     </row>
@@ -518,12 +518,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>club-sports</t>
+          <t>sports_club_coed</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Karate-Coed</t>
+          <t>Karate</t>
         </is>
       </c>
     </row>
@@ -535,12 +535,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>club-sports</t>
+          <t>sports_club_coed</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Karate-Coed</t>
+          <t>Karate</t>
         </is>
       </c>
     </row>
@@ -552,12 +552,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>club-sports</t>
+          <t>sports_club_coed</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Karate-Coed</t>
+          <t>Karate</t>
         </is>
       </c>
     </row>
@@ -569,12 +569,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>club-sports</t>
+          <t>sports_club_coed</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Karate-Coed</t>
+          <t>Karate</t>
         </is>
       </c>
     </row>
@@ -586,12 +586,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>club-sports</t>
+          <t>sports_club_coed</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Karate-Coed</t>
+          <t>Karate</t>
         </is>
       </c>
     </row>
@@ -603,12 +603,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>club-sports</t>
+          <t>sports_club_coed</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Karate-Coed</t>
+          <t>Karate</t>
         </is>
       </c>
     </row>
@@ -620,12 +620,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>club-sports</t>
+          <t>sports_club_coed</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Karate-Coed</t>
+          <t>Karate</t>
         </is>
       </c>
     </row>
@@ -637,12 +637,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>club-sports</t>
+          <t>sports_club_boys</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Karate-Boys</t>
+          <t>Karate</t>
         </is>
       </c>
     </row>
@@ -654,12 +654,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>club-sports</t>
+          <t>sports_club_girls</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Karate-Girls</t>
+          <t>Karate</t>
         </is>
       </c>
     </row>
@@ -671,12 +671,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>club-sports</t>
+          <t>sports_club_coed</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Karate-Coed</t>
+          <t>Karate</t>
         </is>
       </c>
     </row>
@@ -688,12 +688,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>club-sports</t>
+          <t>sports_club_coed</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Karate-Coed</t>
+          <t>Karate</t>
         </is>
       </c>
     </row>
@@ -705,12 +705,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>club-sports</t>
+          <t>sports_club_coed</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Karate-Coed</t>
+          <t>Karate</t>
         </is>
       </c>
     </row>
@@ -722,12 +722,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>club-sports</t>
+          <t>sports_club_coed</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Karate-Coed</t>
+          <t>Karate</t>
         </is>
       </c>
     </row>
@@ -739,12 +739,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>club-sports</t>
+          <t>sports_club_boys</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Karate-Boys</t>
+          <t>Karate</t>
         </is>
       </c>
     </row>
@@ -756,12 +756,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>club-sports</t>
+          <t>sports_club_girls</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Karate-Girls</t>
+          <t>Karate</t>
         </is>
       </c>
     </row>
@@ -773,12 +773,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>club-sports</t>
+          <t>sports_club_coed</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Karate-Coed</t>
+          <t>Karate</t>
         </is>
       </c>
     </row>
